--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="-26720" yWindow="-440" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
     <t>city</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,422 @@
   </si>
   <si>
     <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京面食馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京味轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Mateo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江浙菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海新天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海生煎馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏杭小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海乔家栅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海家常菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cupertino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunnyvale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好煮意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金禧海鲜酒家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶山冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇峰阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故湘居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳阳楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fremont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好客栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boiling Crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe's Crab Shack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomi Sushi &amp; Seafood Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tatami Sushi &amp; Seafood Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤，麻辣烫，干锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤司令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香辣涮串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨师傅烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门串烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺润麻辣烫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海海鲜酒家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西贡渔港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福临门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dublin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕喜楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oakland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot Pot Palace Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shabuway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nami Nami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orenchi Ramen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumika Grill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sushi Tomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Altos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jang Su Jang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kunjip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palace BBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ginseng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tofu House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真一条龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真马家馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中式甜品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚留山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港饮港食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow Flake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快可立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品客多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半亩园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三好拉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同同水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关东风情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,6 +588,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -195,14 +629,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -531,19 +969,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -568,8 +1010,11 @@
       <c r="H1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -583,7 +1028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -597,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -611,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -625,7 +1070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -639,7 +1084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -653,7 +1098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -667,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -681,7 +1126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -695,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -709,7 +1154,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -723,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -735,11 +1180,922 @@
       </c>
       <c r="G13" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
+        <v>47</v>
+      </c>
+      <c r="G70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+      <c r="G75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26720" yWindow="-440" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,555 +21,555 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="138">
   <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御食园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金饭碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红翻天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃喝香辣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老赵川菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿鸣春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富恩园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣诱惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴山蜀水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福恩园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山城私房菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻辣帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foster City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menlo Park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Mateo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Mateo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondary_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京面食馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京味轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Mateo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江浙菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海新天地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海生煎馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏杭小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海乔家栅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海家常菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cupertino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunnyvale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好煮意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金禧海鲜酒家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶山冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇峰阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故湘居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳阳楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fremont</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈妈妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好客栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南小吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boiling Crab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe's Crab Shack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomi Sushi &amp; Seafood Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tatami Sushi &amp; Seafood Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤，麻辣烫，干锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤司令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香辣涮串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨师傅烧烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙门串烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺润麻辣烫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海海鲜酒家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西贡渔港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福临门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berkeley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dublin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕喜楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oakland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小肥羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot Pot Palace Buffet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shabuway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nami Nami</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orenchi Ramen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumika Grill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sushi Tomi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Altos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jang Su Jang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kunjip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palace BBQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ginseng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tofu House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palo Alto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真一条龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清真马家馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milpitas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中式甜品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚留山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港饮港食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snow Flake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快可立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品客多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半亩园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小沈阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹林轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三好拉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同同水饺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关东风情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>city</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>川菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御食园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金饭碗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红翻天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃喝香辣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老赵川菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹿鸣春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富恩园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣诱惑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴山蜀水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福恩园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山城私房菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻辣帝国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Francisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berkeley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foster City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Newark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mountain View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berkeley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menlo Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Jose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milpitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Mateo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milpitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Mateo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secondary_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京小馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京面食馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京味轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Francisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Mateo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milpitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江浙菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海新天地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海生煎馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏杭小馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海乔家栅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海家常菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cupertino</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sunnyvale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palo Alto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港小馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好煮意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金禧海鲜酒家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粤菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palo Alto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>湘菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶山冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇峰阁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故湘居</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳阳楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fremont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁妈妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈妈妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好客栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台南小吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mountain View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海鲜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boiling Crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Joe's Crab Shack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomi Sushi &amp; Seafood Buffet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tatami Sushi &amp; Seafood Buffet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Jose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Francisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>San Jose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烧烤，麻辣烫，干锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤司令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香辣涮串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨师傅烧烤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙门串烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旺润麻辣烫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭将军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早茶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东海海鲜酒家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲤鱼门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西贡渔港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五月花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福临门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berkeley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dublin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燕喜楼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oakland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小肥羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hot Pot Palace Buffet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shabuway</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kirala</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nami Nami</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Orenchi Ramen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sumika Grill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sushi Tomi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Los Altos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jang Su Jang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kunjip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palace BBQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ginseng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tofu House</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mountain View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palo Alto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清真一条龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清真马家馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milpitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中式甜品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楚留山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>港饮港食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Snow Flake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶茶店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶殿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快可立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品客多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半亩园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小沈阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹林轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三好拉面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同同水饺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关东风情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72:G78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -987,1109 +987,1109 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
         <v>53</v>
       </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
         <v>67</v>
       </c>
-      <c r="F32" t="s">
-        <v>68</v>
-      </c>
       <c r="G32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>96</v>
       </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
       </c>
-      <c r="F59" t="s">
-        <v>114</v>
-      </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" t="s">
         <v>124</v>
-      </c>
-      <c r="C68" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/data.xlsx
+++ b/public/data/data.xlsx
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>labels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -569,7 +565,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>city</t>
+    <t>city_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -993,16 +993,16 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1184,13 +1184,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
         <v>27</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>27</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" t="s">
         <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
         <v>27</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>27</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
         <v>27</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
         <v>27</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
         <v>27</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
         <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" t="s">
-        <v>93</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" t="s">
         <v>27</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
         <v>112</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
       </c>
       <c r="G59" t="s">
         <v>27</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>27</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G63" t="s">
         <v>27</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G64" t="s">
         <v>27</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
         <v>27</v>
@@ -1912,184 +1912,184 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s">
         <v>123</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
